--- a/문서파일/2024 2팀 2차 요구사항 정의서.xlsx
+++ b/문서파일/2024 2팀 2차 요구사항 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizeBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3FBD9D-2C71-4B51-9CB7-DE3ABB0FC826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB10BDA-CAA1-4165-A1B9-8BAB30B9C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -282,59 +282,6 @@
         <charset val="129"/>
       </rPr>
       <t>가입</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네이버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카카오로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1697,6 +1644,67 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>이안형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문광명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태재, 이선회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카카오로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 관리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 목록 관리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 댓글에 대한 신고들 목록 및 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1868,7 +1876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -2449,37 +2457,7 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
@@ -2541,42 +2519,9 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2712,12 +2657,64 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
         <color theme="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2809,15 +2806,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2830,22 +2818,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2854,97 +2830,79 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2956,7 +2914,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2965,10 +2923,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2985,6 +2943,65 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3013,25 +3030,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3064,60 +3063,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3491,10 +3488,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1008"/>
+  <dimension ref="A1:W1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3537,15 +3534,15 @@
     </row>
     <row r="2" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3564,13 +3561,13 @@
     </row>
     <row r="3" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3614,31 +3611,31 @@
     </row>
     <row r="5" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3651,31 +3648,33 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="33">
         <v>2</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="126" t="s">
+      <c r="G6" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="85" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3690,23 +3689,23 @@
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="125"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3721,27 +3720,27 @@
     </row>
     <row r="8" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="135" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="126" t="s">
+      <c r="G8" s="130"/>
+      <c r="H8" s="85" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3756,23 +3755,23 @@
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="58" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>45</v>
+      <c r="E9" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="125"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3787,8 +3786,8 @@
     </row>
     <row r="10" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
@@ -3798,12 +3797,12 @@
       <c r="F10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="131"/>
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3818,25 +3817,27 @@
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="82" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="83" t="s">
-        <v>76</v>
+      <c r="D11" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="70"/>
+      <c r="G11" s="128" t="s">
+        <v>89</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3851,27 +3852,29 @@
     </row>
     <row r="12" spans="1:23" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="133" t="s">
-        <v>48</v>
+      <c r="B12" s="122"/>
+      <c r="C12" s="91" t="s">
+        <v>47</v>
       </c>
-      <c r="D12" s="73" t="s">
-        <v>46</v>
+      <c r="D12" s="60" t="s">
+        <v>45</v>
       </c>
-      <c r="E12" s="74" t="s">
-        <v>78</v>
+      <c r="E12" s="61" t="s">
+        <v>77</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="93">
         <v>2</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="132" t="s">
+        <v>90</v>
+      </c>
       <c r="H12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -3886,21 +3889,21 @@
     </row>
     <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="69" t="s">
+      <c r="B13" s="122"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3915,21 +3918,21 @@
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="59" t="s">
+      <c r="B14" s="122"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="130"/>
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3944,21 +3947,21 @@
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="59" t="s">
-        <v>47</v>
+      <c r="B15" s="122"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="49" t="s">
+        <v>46</v>
       </c>
-      <c r="E15" s="51" t="s">
-        <v>65</v>
+      <c r="E15" s="41" t="s">
+        <v>64</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="131"/>
       <c r="H15" s="6"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3973,17 +3976,17 @@
     </row>
     <row r="16" spans="1:23" ht="12.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="116"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="42"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="7"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3998,27 +4001,29 @@
     </row>
     <row r="17" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="136" t="s">
+      <c r="B17" s="122"/>
+      <c r="C17" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>88</v>
+      <c r="E17" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
       </c>
-      <c r="G17" s="42"/>
+      <c r="G17" s="123" t="s">
+        <v>88</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4033,18 +4038,18 @@
     </row>
     <row r="18" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="62" t="s">
+      <c r="B18" s="122"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>67</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="124"/>
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="17"/>
@@ -4064,18 +4069,18 @@
     </row>
     <row r="19" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="63" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="66" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>69</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="6"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4095,19 +4100,19 @@
     </row>
     <row r="20" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="61" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="55" t="s">
-        <v>57</v>
+      <c r="E20" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="82"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -4126,19 +4131,19 @@
     </row>
     <row r="21" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="64" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="66" t="s">
         <v>84</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>85</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -4156,20 +4161,20 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="64" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="99">
+      <c r="F22" s="110">
         <v>1</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -4186,19 +4191,19 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="61" t="s">
+    <row r="23" spans="1:23" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="125"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4216,14 +4221,14 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="126" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="85" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="2"/>
@@ -4243,14 +4248,14 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="123"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4268,14 +4273,14 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="123"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4293,14 +4298,14 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="123"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4318,14 +4323,14 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="123"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4343,14 +4348,14 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="125"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="84"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -4369,20 +4374,22 @@
     </row>
     <row r="30" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="138" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>55</v>
+      <c r="E30" s="45" t="s">
+        <v>71</v>
       </c>
-      <c r="E30" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="127">
+      <c r="F30" s="86">
         <v>1</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="127" t="s">
+        <v>91</v>
+      </c>
       <c r="H30" s="5" t="s">
         <v>28</v>
       </c>
@@ -4404,16 +4411,18 @@
     </row>
     <row r="31" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="80" t="s">
-        <v>73</v>
+      <c r="B31" s="122"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="67" t="s">
+        <v>72</v>
       </c>
-      <c r="E31" s="56" t="s">
-        <v>77</v>
+      <c r="E31" s="46" t="s">
+        <v>76</v>
       </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="45"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="133" t="s">
+        <v>89</v>
+      </c>
       <c r="H31" s="10"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4433,16 +4442,18 @@
     </row>
     <row r="32" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="43" t="s">
-        <v>56</v>
+      <c r="B32" s="122"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="36" t="s">
+        <v>55</v>
       </c>
-      <c r="E32" s="43" t="s">
-        <v>60</v>
+      <c r="E32" s="36" t="s">
+        <v>59</v>
       </c>
-      <c r="F32" s="128"/>
-      <c r="G32" s="46"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="126" t="s">
+        <v>90</v>
+      </c>
       <c r="H32" s="12" t="s">
         <v>32</v>
       </c>
@@ -4464,12 +4475,12 @@
     </row>
     <row r="33" spans="1:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="116"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="26"/>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="41"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="14" t="s">
         <v>34</v>
       </c>
@@ -4491,20 +4502,22 @@
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="129" t="s">
+      <c r="B34" s="122"/>
+      <c r="C34" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="68" t="s">
-        <v>49</v>
+      <c r="E34" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="134" t="s">
+        <v>90</v>
+      </c>
       <c r="H34" s="15" t="s">
         <v>35</v>
       </c>
@@ -4526,18 +4539,18 @@
     </row>
     <row r="35" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="58" t="s">
+      <c r="B35" s="122"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="44" t="s">
-        <v>50</v>
+      <c r="E35" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="131"/>
+      <c r="G35" s="135"/>
       <c r="H35" s="16" t="s">
         <v>36</v>
       </c>
@@ -4559,8 +4572,8 @@
     </row>
     <row r="36" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="130"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="8" t="s">
         <v>26</v>
       </c>
@@ -4570,7 +4583,7 @@
       <c r="F36" s="9">
         <v>1</v>
       </c>
-      <c r="G36" s="132"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="16" t="s">
         <v>37</v>
       </c>
@@ -4592,7 +4605,7 @@
     </row>
     <row r="37" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="111" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -4602,10 +4615,14 @@
         <v>31</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="30"/>
+      <c r="F37" s="19">
+        <v>2</v>
+      </c>
+      <c r="G37" s="137" t="s">
+        <v>90</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4623,10 +4640,10 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="108" t="s">
+      <c r="B38" s="112"/>
+      <c r="C38" s="114" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -4635,8 +4652,10 @@
       <c r="E38" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="31"/>
+      <c r="F38" s="19">
+        <v>2</v>
+      </c>
+      <c r="G38" s="138"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -4656,16 +4675,18 @@
     </row>
     <row r="39" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="109"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>53</v>
+      <c r="F39" s="19">
+        <v>2</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="31"/>
+      <c r="G39" s="138"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -4685,18 +4706,20 @@
     </row>
     <row r="40" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="84" t="s">
+      <c r="B40" s="112"/>
+      <c r="C40" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="85" t="s">
-        <v>79</v>
+      <c r="D40" s="72" t="s">
+        <v>78</v>
       </c>
-      <c r="E40" s="86" t="s">
-        <v>81</v>
+      <c r="E40" s="73" t="s">
+        <v>80</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="31"/>
+      <c r="F40" s="19">
+        <v>2</v>
+      </c>
+      <c r="G40" s="138"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -4716,18 +4739,22 @@
     </row>
     <row r="41" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="71" t="s">
-        <v>68</v>
+      <c r="B41" s="112"/>
+      <c r="C41" s="59" t="s">
+        <v>67</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="88" t="s">
-        <v>87</v>
+      <c r="F41" s="19">
+        <v>2</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="139" t="s">
+        <v>91</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4745,20 +4772,24 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="110" t="s">
-        <v>80</v>
+      <c r="B42" s="112"/>
+      <c r="C42" s="59" t="s">
+        <v>93</v>
       </c>
-      <c r="D42" s="110" t="s">
-        <v>82</v>
+      <c r="D42" s="74" t="s">
+        <v>94</v>
       </c>
-      <c r="E42" s="112" t="s">
-        <v>83</v>
+      <c r="E42" s="75" t="s">
+        <v>95</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="31"/>
+      <c r="F42" s="19">
+        <v>2</v>
+      </c>
+      <c r="G42" s="138" t="s">
+        <v>90</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4776,14 +4807,22 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="19">
+        <v>2</v>
+      </c>
+      <c r="G43" s="138"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -4801,14 +4840,16 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="19">
+        <v>2</v>
+      </c>
+      <c r="G44" s="140"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -28926,14 +28967,53 @@
       <c r="V1008" s="2"/>
       <c r="W1008" s="2"/>
     </row>
+    <row r="1009" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="J5:L17"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B6:B36"/>
+    <mergeCell ref="G17:G29"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G34:G36"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="H20:H23"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="C34:C36"/>
-    <mergeCell ref="G35:G36"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="C17:C23"/>
@@ -28942,19 +29022,9 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H24:H29"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="J5:L17"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B6:B36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F12 F17:F22 F33:F1008">
+  <conditionalFormatting sqref="F1:F12 F17:F22 F33:F1009">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28970,7 +29040,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G22 G30:G35 G37:G1008">
+  <conditionalFormatting sqref="G30:G34 G37 G1:G6 G11:G12 G16:G17 G41:G42 G45:G1009">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"다같이"</formula>
     </cfRule>
